--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrp-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agrp-Mc4r.xlsx
@@ -76,7 +76,7 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>ECs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -531,22 +531,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.222768</v>
+        <v>0.5679715</v>
       </c>
       <c r="H2">
-        <v>0.668304</v>
+        <v>1.135943</v>
       </c>
       <c r="I2">
-        <v>0.1614015648347147</v>
+        <v>0.1948020679094191</v>
       </c>
       <c r="J2">
-        <v>0.1614015648347147</v>
+        <v>0.1388865047139418</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3684155</v>
+        <v>0.115994</v>
       </c>
       <c r="N2">
-        <v>0.736831</v>
+        <v>0.231988</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.08207118410399999</v>
+        <v>0.06588128617099999</v>
       </c>
       <c r="R2">
-        <v>0.492427104624</v>
+        <v>0.263525144684</v>
       </c>
       <c r="S2">
-        <v>0.1614015648347147</v>
+        <v>0.1948020679094191</v>
       </c>
       <c r="T2">
-        <v>0.1614015648347147</v>
+        <v>0.1388865047139418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.052073</v>
+        <v>2.235202</v>
       </c>
       <c r="H3">
-        <v>0.156219</v>
+        <v>6.705606</v>
       </c>
       <c r="I3">
-        <v>0.03772832581716448</v>
+        <v>0.7666264448044829</v>
       </c>
       <c r="J3">
-        <v>0.03772832581716449</v>
+        <v>0.8198634784745682</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3684155</v>
+        <v>0.115994</v>
       </c>
       <c r="N3">
-        <v>0.736831</v>
+        <v>0.231988</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0191845003315</v>
+        <v>0.259270020788</v>
       </c>
       <c r="R3">
-        <v>0.115107001989</v>
+        <v>1.555620124728</v>
       </c>
       <c r="S3">
-        <v>0.03772832581716448</v>
+        <v>0.7666264448044829</v>
       </c>
       <c r="T3">
-        <v>0.03772832581716449</v>
+        <v>0.8198634784745682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.105368666666667</v>
+        <v>0.1124603333333333</v>
       </c>
       <c r="H4">
-        <v>3.316106</v>
+        <v>0.337381</v>
       </c>
       <c r="I4">
-        <v>0.8008701093481208</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="J4">
-        <v>0.8008701093481208</v>
+        <v>0.04125001681149001</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3684155</v>
+        <v>0.115994</v>
       </c>
       <c r="N4">
-        <v>0.736831</v>
+        <v>0.231988</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.4072349500143334</v>
+        <v>0.01304472390466667</v>
       </c>
       <c r="R4">
-        <v>2.443409700086</v>
+        <v>0.078268343428</v>
       </c>
       <c r="S4">
-        <v>0.8008701093481208</v>
+        <v>0.03857148728609783</v>
       </c>
       <c r="T4">
-        <v>0.8008701093481208</v>
+        <v>0.04125001681149001</v>
       </c>
     </row>
   </sheetData>
